--- a/01_Functional_Testing_CRM/Test_Scenarios.xlsx
+++ b/01_Functional_Testing_CRM/Test_Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github projects\crm-testing-portfolio\01_Functional_Testing_CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDEA3BE-8D35-4116-894D-0D4010178051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72039774-EAD0-452B-AB47-0804FBEECAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{B1DEE406-8DEF-41CE-B223-1312614C5C30}"/>
+    <workbookView xWindow="6105" yWindow="1635" windowWidth="26325" windowHeight="14235" xr2:uid="{B1DEE406-8DEF-41CE-B223-1312614C5C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="40">
   <si>
     <t>TC ID</t>
   </si>
@@ -69,16 +69,6 @@
   </si>
   <si>
     <t>Sales / Leads</t>
-  </si>
-  <si>
-    <t>Creating a new Lead</t>
-  </si>
-  <si>
-    <t>Verify creating a new Lead with mandatory fields</t>
-  </si>
-  <si>
-    <t>1. User is logged in
-2. Dashboard is displayed</t>
   </si>
   <si>
     <t>1. Maps to "Sales" -&gt; "Leads".
@@ -90,13 +80,102 @@
     <t>Last Name: Smith</t>
   </si>
   <si>
-    <t>System saves the Lead. User is redirected to the Lead overwiew page. "Smith" is visible in the list.</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>System saves the Lead. User is redirected to the newly created Lead overwiew page. "Smith" is visible in the Leads list.</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. Dashboard is displayed.</t>
+  </si>
+  <si>
+    <t>Verify creating a new Lead with mandatory fields.</t>
+  </si>
+  <si>
+    <t>Verify validation when mandatory field is missing while creating a new Lead.</t>
+  </si>
+  <si>
+    <t>Missing field in creating a new Lead.</t>
+  </si>
+  <si>
+    <t>Creating a new Lead.</t>
+  </si>
+  <si>
+    <t>1. Leave "Last Name" field empty.
+2. Click "Save" button.</t>
+  </si>
+  <si>
+    <t>Last Name: [empty]</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. User is on the "Create Lead" page.</t>
+  </si>
+  <si>
+    <t>System does not save the Lead due to missing required field. Suitable error message is displayed.</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. Dashboard is displayed.
+3. Existing Lead "Smith" with status "New" is available.</t>
+  </si>
+  <si>
+    <t>Lead conversion to Contact &amp; Account workflow.</t>
+  </si>
+  <si>
+    <t>Verify workflow of conversion from Lead to Contact &amp; Account.</t>
+  </si>
+  <si>
+    <t>Account Name: Tech-Corp</t>
+  </si>
+  <si>
+    <t>1. Open Lead "Smith" details.
+2. Click "Actions" dropdown menu.
+3. Select "Convert Lead".
+4. On the conversion screen, ensure "Create Contact" &amp; "Create Account" checkboxes are selected.
+5. In "Create Account" enter "Tech-Corp" in the Name" field
+6. Click "Save".</t>
+  </si>
+  <si>
+    <t>Lead "Smith" status changes to "Converted". A new record in "Contacts" module is created with the same data. 
+User is redirected to a page informing, that new Contact and Account have been created.</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Editing existing Lead</t>
+  </si>
+  <si>
+    <t>Verify editing existing Lead by adding a phone number.</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. Dashboard is displayed.
+3. Existing Lead "Smith" is available.</t>
+  </si>
+  <si>
+    <t>1. Open Lead "Smith" details.
+2. Click "Actions" dropdown menu.
+3. Select "Edit".
+4. Add "111222333" in the "Mobile" field
+5. Click "Save"</t>
+  </si>
+  <si>
+    <t>Mobile: 111222333</t>
+  </si>
+  <si>
+    <t>User is redirected to the   "Smith" Lead page, added phone number is visible.</t>
   </si>
 </sst>
 </file>
@@ -142,28 +221,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -181,7 +239,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -517,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4EC30-1AA9-4DBE-97E8-6DCA4073690E}">
   <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,1527 +630,1599 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I48" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I62" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I64" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I94" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I96" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I103" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I104" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I105" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I106" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I107" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I108" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I109" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I110" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I111" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I112" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I113" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I114" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I115" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I116" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I117" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I118" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I119" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I120" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I121" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I122" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I123" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I124" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I125" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I126" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I127" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I128" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I129" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I130" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I131" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I132" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I133" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I134" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I135" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I136" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I137" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I138" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I139" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I140" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I141" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I142" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I143" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I144" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I145" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I146" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I147" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I148" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I149" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I150" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I151" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I152" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I153" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I154" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I155" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I156" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I157" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I158" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I159" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I160" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I161" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I162" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I163" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I164" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I165" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I166" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I167" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I168" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I169" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I170" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I171" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I172" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I173" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I174" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I175" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I176" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I177" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I178" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I179" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I180" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I181" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I182" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I183" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I184" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I185" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I186" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I187" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I188" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I189" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I190" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I191" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I192" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I193" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I194" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I195" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I196" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I197" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I198" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I199" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I200" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I201" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I202" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I203" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I204" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I205" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I206" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I207" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I208" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I209" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I210" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I211" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I212" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I213" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I214" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I215" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I216" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I217" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I218" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I219" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I220" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I221" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I222" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I223" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I224" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I225" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I226" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I227" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I228" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I229" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I230" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I231" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I232" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I233" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I234" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I235" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I236" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I237" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I238" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I239" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I240" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I241" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I242" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I243" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I244" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I245" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I246" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I247" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I248" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I249" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I250" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I251" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I252" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I253" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I254" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I255" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I256" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I257" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I258" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I259" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I260" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I261" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I262" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I263" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I264" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I265" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I266" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I267" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I268" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I269" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I270" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I271" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I272" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I273" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I274" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I275" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I276" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I277" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I278" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I279" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I280" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I281" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I282" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I283" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I284" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I285" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I286" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I287" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I288" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I289" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I290" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I291" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I292" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I293" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I294" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I295" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I296" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I297" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I298" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I299" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I300" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD300">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I2="Pass"</formula>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$I2="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I2="Fail"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$I2="Blocked"</formula>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$I2="Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/01_Functional_Testing_CRM/Test_Scenarios.xlsx
+++ b/01_Functional_Testing_CRM/Test_Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github projects\crm-testing-portfolio\01_Functional_Testing_CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72039774-EAD0-452B-AB47-0804FBEECAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F7ABF2-11C1-40EB-B0A7-72C4A2EC64B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="1635" windowWidth="26325" windowHeight="14235" xr2:uid="{B1DEE406-8DEF-41CE-B223-1312614C5C30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1DEE406-8DEF-41CE-B223-1312614C5C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:I300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_Functional_Testing_CRM/Test_Scenarios.xlsx
+++ b/01_Functional_Testing_CRM/Test_Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github projects\crm-testing-portfolio\01_Functional_Testing_CRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C767D-D5B1-428B-895C-7F6460475036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD88FE-339B-4A2B-BC30-DBE6CED9775F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B1DEE406-8DEF-41CE-B223-1312614C5C30}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>TC ID</t>
   </si>
@@ -331,6 +331,29 @@
   </si>
   <si>
     <t>TC_L_007</t>
+  </si>
+  <si>
+    <t>TC_L_008</t>
+  </si>
+  <si>
+    <t>Lead conversion without required Account name</t>
+  </si>
+  <si>
+    <t>Verify when mandatory field (Account Name) is missing while converting Lead to Contact &amp; Account.</t>
+  </si>
+  <si>
+    <t>1. Open Lead "Smith" details.
+2. Click "Actions" dropdown menu.
+3. Select "Convert Lead".
+4. On the conversion screen, ensure "Create Contact" &amp; "Create Account" checkboxes are selected.
+5. In "Create Account" leave the "Name" field empty
+6. Click "Save".</t>
+  </si>
+  <si>
+    <t>Account Name: [empty]</t>
+  </si>
+  <si>
+    <t>System does not save the conversion due to missing required field. Suitable error message is displayed.</t>
   </si>
 </sst>
 </file>
@@ -1034,15 +1057,15 @@
       </c>
       <c r="B11" s="3">
         <f>COUNTA('01_Leads'!A:A)-1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <f>COUNTA('01_Leads'!J:J) - 1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="11">
         <f>COUNTIF('01_Leads'!J:J, "PASS")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="12">
         <f>COUNTIF('01_Leads'!J:J, "FAIL")</f>
@@ -1054,7 +1077,7 @@
       </c>
       <c r="G11" s="8">
         <f>D11/C11</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,15 +1144,15 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B11:B13)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C11:C13)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="11">
         <f>SUM(D11:D13)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(E11:E13)</f>
@@ -1141,7 +1164,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.9375</v>
       </c>
     </row>
   </sheetData>
@@ -1151,11 +1174,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4EC30-1AA9-4DBE-97E8-6DCA4073690E}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,6 +1440,9 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1430,6 +1456,38 @@
         <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
